--- a/input_spreadsheets/Bangladesh/2016Aug02/subregionSpreadsheets/Rangpur.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Aug02/subregionSpreadsheets/Rangpur.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discworld/Documents/Research/Health/Optima/Nutrition/development/Nutrition/input_spreadsheets/Bangladesh/2016Aug02/subregionSpreadsheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14440" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500" firstSheet="18" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -33,13 +38,13 @@
     <sheet name="Interventions mortality eff" sheetId="24" r:id="rId24"/>
     <sheet name="Interventions incidence eff" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -49,6 +54,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Janka Petravic</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0">
@@ -113,7 +119,48 @@
             <rFont val="Arial"/>
           </rPr>
           <t xml:space="preserve">
-BDHS 2011 - food insecure in the lowest 2 quintiles (same in all divisions &amp; nationally</t>
+Fraction food insecure in the target population (here the lowest 2 wealth quintiles)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Madhura Killedar:
+ </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>poor = two lowest wealth quintiles</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -338,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="79">
   <si>
     <t>indicators</t>
   </si>
@@ -355,9 +402,6 @@
     <t>number of pregnant women</t>
   </si>
   <si>
-    <t>fraction food insecure</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -572,19 +616,26 @@
   </si>
   <si>
     <t>Interventions</t>
+  </si>
+  <si>
+    <t>fraction food insecure (poor)</t>
+  </si>
+  <si>
+    <t>fraction poor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -646,6 +697,17 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -746,7 +808,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -785,9 +847,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1407,15 +1470,15 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1431,7 +1494,7 @@
         <v>1670322.9164716236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1439,7 +1502,7 @@
         <v>342558.68727570045</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1447,29 +1510,29 @@
         <v>393721.39010491758</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3">
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1481,60 +1544,60 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
       <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>2.2799999999999998</v>
@@ -1552,9 +1615,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <v>4.62</v>
@@ -1572,9 +1635,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
         <v>10.53</v>
@@ -1592,32 +1655,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B7" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C7" s="2">
         <v>1.66</v>
@@ -1635,9 +1698,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2">
         <v>2.5</v>
@@ -1655,9 +1718,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2">
         <v>14.97</v>
@@ -1675,32 +1738,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B11" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C11" s="2">
         <v>1.66</v>
@@ -1718,9 +1781,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2">
         <v>2.5</v>
@@ -1738,9 +1801,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2">
         <v>14.97</v>
@@ -1758,73 +1821,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
@@ -1841,32 +1904,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B19" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1884,9 +1947,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1904,9 +1967,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1924,32 +1987,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B23" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1967,9 +2030,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -1987,9 +2050,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -2007,72 +2070,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B29" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -2092,11 +2155,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2108,32 +2166,32 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -2150,9 +2208,9 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -2169,9 +2227,9 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -2188,9 +2246,9 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -2207,9 +2265,9 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -2226,9 +2284,9 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -2245,9 +2303,9 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -2264,9 +2322,9 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -2283,117 +2341,112 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2405,23 +2458,23 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>45</v>
       </c>
@@ -2437,11 +2490,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2453,54 +2501,54 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="B3">
         <v>1.26</v>
@@ -2518,9 +2566,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>1.68</v>
@@ -2538,9 +2586,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>2.65</v>
@@ -2560,11 +2608,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2574,31 +2617,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>1.04</v>
@@ -2618,11 +2661,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2634,23 +2672,23 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2666,11 +2704,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2680,34 +2713,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2725,7 +2758,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2733,7 +2766,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2741,7 +2774,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2751,11 +2784,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2765,54 +2793,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -2830,9 +2858,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -2850,9 +2878,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -2872,11 +2900,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2886,35 +2909,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14">
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="7">
         <v>5.16</v>
@@ -2932,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2940,7 +2963,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2950,11 +2973,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2964,53 +2982,53 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14">
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3019,11 +3037,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3035,21 +3048,21 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>2017</v>
       </c>
@@ -3057,7 +3070,7 @@
         <v>340098.1581981951</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2018</v>
       </c>
@@ -3065,7 +3078,7 @@
         <v>337464.61847210204</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2019</v>
       </c>
@@ -3073,7 +3086,7 @@
         <v>334631.37401179445</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2020</v>
       </c>
@@ -3081,7 +3094,7 @@
         <v>331581.94255771092</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2021</v>
       </c>
@@ -3089,7 +3102,7 @@
         <v>328683.72739822575</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>2022</v>
       </c>
@@ -3097,7 +3110,7 @@
         <v>325937.45758262626</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>2023</v>
       </c>
@@ -3105,7 +3118,7 @@
         <v>322958.61410114786</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2024</v>
       </c>
@@ -3113,7 +3126,7 @@
         <v>319755.8881905821</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2025</v>
       </c>
@@ -3121,7 +3134,7 @@
         <v>316332.16935513576</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2026</v>
       </c>
@@ -3129,7 +3142,7 @@
         <v>311741.8330944418</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2027</v>
       </c>
@@ -3137,7 +3150,7 @@
         <v>308100.70446041098</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>2028</v>
       </c>
@@ -3145,7 +3158,7 @@
         <v>304284.36973947572</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>2029</v>
       </c>
@@ -3153,7 +3166,7 @@
         <v>300297.99393894878</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>2030</v>
       </c>
@@ -3164,11 +3177,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3180,7 +3188,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -3188,23 +3196,23 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="B2" s="19">
         <v>0</v>
@@ -3219,9 +3227,9 @@
       <c r="F2" s="13"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="18">
         <v>0.6</v>
@@ -3236,9 +3244,9 @@
       <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="18">
         <v>0.14000000000000001</v>
@@ -3253,9 +3261,9 @@
       <c r="F4" s="13"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -3270,9 +3278,9 @@
       <c r="F5" s="13"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="18">
         <v>0.61</v>
@@ -3287,9 +3295,9 @@
       <c r="F6" s="13"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="18">
         <v>0</v>
@@ -3304,9 +3312,9 @@
       <c r="F7" s="13"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="18">
         <v>0</v>
@@ -3321,110 +3329,105 @@
       <c r="F8" s="13"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3432,11 +3435,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -3446,34 +3449,34 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -3494,125 +3497,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <f>demographics!$B$6</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="E5" s="5">
+        <f>demographics!$B$6</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <f>demographics!$B$6</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="E5" s="5">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.56599999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
@@ -3632,100 +3638,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
@@ -3733,11 +3739,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3749,37 +3750,37 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
       </c>
       <c r="C2" s="14">
         <v>0.21</v>
@@ -3794,9 +3795,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="14">
         <f>demographics!$B$5</f>
@@ -3814,12 +3815,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="14">
         <v>0.1</v>
@@ -3834,9 +3835,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -3853,11 +3854,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3869,40 +3865,40 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -3920,10 +3916,10 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -3941,12 +3937,12 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -3964,9 +3960,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -3984,34 +3980,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4023,40 +4014,40 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -4074,10 +4065,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -4095,12 +4086,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -4118,9 +4109,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -4138,34 +4129,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4175,40 +4161,40 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -4226,10 +4212,10 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -4247,12 +4233,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -4270,9 +4256,9 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -4290,34 +4276,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4329,20 +4310,20 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14">
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>24.49</v>
       </c>
@@ -4358,11 +4339,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4374,31 +4350,31 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" t="s">
-        <v>17</v>
       </c>
       <c r="B2" s="8">
         <v>7.0000000000000001E-3</v>
@@ -4416,9 +4392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="8">
         <v>0.19900000000000001</v>
@@ -4436,9 +4412,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="8">
         <v>5.8999999999999997E-2</v>
@@ -4456,9 +4432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="8">
         <v>0.22900000000000001</v>
@@ -4476,9 +4452,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="8">
         <v>0.29699999999999999</v>
@@ -4496,9 +4472,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="8">
         <v>6.0000000000000001E-3</v>
@@ -4516,9 +4492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="8">
         <v>0.127</v>
@@ -4536,9 +4512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="8">
         <v>7.5999999999999998E-2</v>
@@ -4556,9 +4532,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
@@ -4576,9 +4552,9 @@
         <v>0.14810000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="8">
         <v>0</v>
@@ -4596,9 +4572,9 @@
         <v>0.2883</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="8">
         <v>0</v>
@@ -4616,9 +4592,9 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -4636,9 +4612,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -4656,9 +4632,9 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -4676,29 +4652,29 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" t="s">
-        <v>32</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -4716,9 +4692,9 @@
         <v>0.14510000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -4738,11 +4714,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4754,37 +4725,37 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="23" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>37</v>
       </c>
       <c r="C2" s="20">
         <v>53.985633752966464</v>
@@ -4802,9 +4773,9 @@
         <v>21.385961380218752</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="20">
         <v>19.221386216766867</v>
@@ -4822,9 +4793,9 @@
         <v>28.030681745857471</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="20">
         <v>15.242374162700251</v>
@@ -4842,9 +4813,9 @@
         <v>41.684834090176132</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="20">
         <v>3.2578695275153176</v>
@@ -4862,12 +4833,12 @@
         <v>11.31933837593601</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="21">
         <v>51.634699127390704</v>
@@ -4885,9 +4856,9 @@
         <v>44.218978520500087</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="21">
         <v>21.223168309153586</v>
@@ -4905,9 +4876,9 @@
         <v>34.722007971226631</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="21">
         <v>23.681195520814708</v>
@@ -4925,9 +4896,9 @@
         <v>16.455874796879293</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="21">
         <v>7.9485949080291762</v>
@@ -4945,12 +4916,12 @@
         <v>3.3816829648570432</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C10">
         <v>80.3</v>
@@ -4968,9 +4939,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>6.8</v>
@@ -4988,9 +4959,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>10.7</v>
@@ -5008,9 +4979,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>2.2000000000000002</v>
@@ -5033,11 +5004,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5047,20 +5013,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>3.1099999999999999E-2</v>
       </c>
@@ -5073,11 +5039,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5085,35 +5046,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="24">
         <v>2.5000000000000001E-2</v>
@@ -5131,9 +5092,9 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
         <v>3.5999999999999997E-2</v>
@@ -5154,11 +5115,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5168,57 +5124,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B3" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -5236,9 +5192,9 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -5256,9 +5212,9 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -5276,32 +5232,32 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B7" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -5319,9 +5275,9 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -5339,9 +5295,9 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -5359,52 +5315,52 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B12" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -5422,9 +5378,9 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -5442,73 +5398,73 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
@@ -5525,52 +5481,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B20" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -5588,9 +5544,9 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -5610,11 +5566,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5624,57 +5575,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B3" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -5692,9 +5643,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -5712,9 +5663,9 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -5732,32 +5683,32 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B7" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -5775,9 +5726,9 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -5795,9 +5746,9 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -5815,52 +5766,52 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B12" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -5878,9 +5829,9 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -5898,73 +5849,73 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
@@ -5981,32 +5932,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B19" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -6024,9 +5975,9 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -6044,9 +5995,9 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -6066,10 +6017,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/input_spreadsheets/Bangladesh/2016Aug02/subregionSpreadsheets/Rangpur.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Aug02/subregionSpreadsheets/Rangpur.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500" firstSheet="18" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="80">
   <si>
     <t>indicators</t>
   </si>
@@ -622,6 +622,9 @@
   </si>
   <si>
     <t>fraction poor</t>
+  </si>
+  <si>
+    <t>fraction food insecure (not poor)</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -808,7 +811,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -850,7 +853,10 @@
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1469,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1527,7 +1533,12 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="26">
+        <v>0.20599999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3435,7 +3446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/input_spreadsheets/Bangladesh/2016Aug02/subregionSpreadsheets/Rangpur.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Aug02/subregionSpreadsheets/Rangpur.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500" firstSheet="19" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -1475,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
@@ -3757,8 +3757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3811,16 +3811,15 @@
         <v>75</v>
       </c>
       <c r="C3" s="14">
-        <f>demographics!$B$5</f>
-        <v>0.56799999999999995</v>
+        <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
+        <v>0.32148799999999994</v>
       </c>
       <c r="D3" s="14">
-        <f>demographics!$B$5</f>
-        <v>0.56799999999999995</v>
+        <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
+        <v>0.32148799999999994</v>
       </c>
       <c r="E3" s="14">
-        <f>demographics!$B$5</f>
-        <v>0.56799999999999995</v>
+        <v>0</v>
       </c>
       <c r="F3" s="14">
         <v>0</v>
@@ -3857,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="14">
         <v>0</v>
